--- a/Algo_Grafy/Zeszyt1.xlsx
+++ b/Algo_Grafy/Zeszyt1.xlsx
@@ -5,18 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krzys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Algorytmy\Algo_Grafy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23820" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23820" windowHeight="12090" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wykres1" sheetId="2" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
+    <sheet name="Wykres2" sheetId="4" r:id="rId3"/>
+    <sheet name="Wykres3" sheetId="5" r:id="rId4"/>
+    <sheet name="Arkusz2" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="wyniki" localSheetId="0">Arkusz1!$G$6:$H$61</definedName>
-    <definedName name="wyniki_1" localSheetId="0">Arkusz1!$K$36:$L$125</definedName>
+    <definedName name="_1" localSheetId="4">Arkusz2!$I$30:$J$59</definedName>
+    <definedName name="wyniki" localSheetId="1">Arkusz1!$G$6:$H$61</definedName>
+    <definedName name="wyniki_1" localSheetId="1">Arkusz1!$K$36:$L$125</definedName>
+    <definedName name="wyniki2" localSheetId="4">Arkusz2!$D$15:$E$105</definedName>
+    <definedName name="wyniki2_1" localSheetId="4">Arkusz2!$N$31:$O$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +36,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="wyniki" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\krzys\Desktop\1.txt" thousands=" " comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="wyniki" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\GIT\Algorytmy\wyniki.txt" thousands=" " comma="1">
       <textFields count="2">
         <textField/>
@@ -37,8 +52,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="wyniki1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="3" name="wyniki1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\GIT\Algorytmy\wyniki.txt" thousands=" " comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="wyniki2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\GIT\Algorytmy\wyniki2.txt" thousands=" " comma="1" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="wyniki21" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\GIT\Algorytmy\wyniki2.txt" thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -49,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="74">
   <si>
     <t>200M</t>
   </si>
@@ -206,6 +237,72 @@
   <si>
     <t>4500L</t>
   </si>
+  <si>
+    <t>50M</t>
+  </si>
+  <si>
+    <t>50L</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>100L</t>
+  </si>
+  <si>
+    <t>150M</t>
+  </si>
+  <si>
+    <t>150L</t>
+  </si>
+  <si>
+    <t>250M</t>
+  </si>
+  <si>
+    <t>250L</t>
+  </si>
+  <si>
+    <t>350M</t>
+  </si>
+  <si>
+    <t>350L</t>
+  </si>
+  <si>
+    <t>450M</t>
+  </si>
+  <si>
+    <t>450L</t>
+  </si>
+  <si>
+    <t>500M</t>
+  </si>
+  <si>
+    <t>500L</t>
+  </si>
+  <si>
+    <t>550M</t>
+  </si>
+  <si>
+    <t>550L</t>
+  </si>
+  <si>
+    <t>650M</t>
+  </si>
+  <si>
+    <t>650L</t>
+  </si>
+  <si>
+    <t>700M</t>
+  </si>
+  <si>
+    <t>700L</t>
+  </si>
+  <si>
+    <t>750M</t>
+  </si>
+  <si>
+    <t>750L</t>
+  </si>
 </sst>
 </file>
 
@@ -241,8 +338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -647,11 +745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="272342336"/>
-        <c:axId val="272349952"/>
+        <c:axId val="255727056"/>
+        <c:axId val="91479056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272342336"/>
+        <c:axId val="255727056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +853,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272349952"/>
+        <c:crossAx val="91479056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -763,9 +861,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272349952"/>
+        <c:axId val="91479056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="94"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -875,7 +974,2712 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272342336"/>
+        <c:crossAx val="255727056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Porównanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Sortowań Topologicznych</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$M$7:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$M$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.1499624252319267E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23966677983601867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78499960899352994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.83350006739298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5291666984558034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1286664803822797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6713333924611362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.313333193461068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.442333380381235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.910166740417466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.121166785557996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.202309211095134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.616833209991434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.430832624435396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.976166168848636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$M$7:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$M$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.8024931748708026E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2180249015490211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72817499637603678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7003414909044845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2958662867546051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7303999861081394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0622083544731105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.451999779542239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.272966436545001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.35806630849833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.082707850138277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.598891218503248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.167390783627759</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.332208490371656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.108732624848642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="91480688"/>
+        <c:axId val="91481776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91480688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91481776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91481776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="94"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> pracy [w s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91480688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Algorytm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Prima-Jarnika (30%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$M$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$M$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.03340943654378E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14683341979980399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71483333905537905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1919998327890968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.361665884653724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.023665269215869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.1903337637583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.345999797185236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.838999986648531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.433666308720845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.20783360799101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.78950468699068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>236.48683285713136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.83516788482638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>418.98166529337533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$M$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$M$10:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.499673843383783E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2166700363159131E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23633138338724735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73766692479451468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7264994780222533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4773336251576672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3689994017283098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8093334039052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.389833052953033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.356665770212768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.557665665944398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.611999988555858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.433833201726259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.20733340581252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131.28000028928065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="503241120"/>
+        <c:axId val="503226976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="503241120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wierzchołków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503226976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503226976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [w s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503241120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Algorytm Prima-Jarnika (70%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$M$17:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$M$18:$AA$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.10018253326416E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14400315284729001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70849943161010698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.17949962615966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2519991397857604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.7909972667694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.1040005683898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.490000963211003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.442497730255099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.388996839523301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.20799732208199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170.67999863624499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>234.05300045013399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>316.92599725723198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>415.63150095939602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$M$17:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$M$19:$AA$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.9981555938720703E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.110998630523681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53149890899658203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6074981689453101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81849861145019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8249962329864502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.427500247955299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.4104981422424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.568499088287297</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.5474982261657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87.482498884200993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.65399956703099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167.22500038146899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>227.98150014877299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>296.66549992561301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="94260512"/>
+        <c:axId val="499576336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94260512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ilość wierzchołków</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499576336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499576336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Czas [w s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94260512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Algorytm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> Prima-Jarnika</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$M$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$M$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.03340943654378E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14683341979980399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71483333905537905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1919998327890968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.361665884653724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.023665269215869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.1903337637583</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.345999797185236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.838999986648531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.433666308720845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.20783360799101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175.78950468699068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>236.48683285713136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>319.83516788482638</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>418.98166529337533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz2!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lista</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz2!$M$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$M$10:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.499673843383783E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2166700363159131E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23633138338724735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73766692479451468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7264994780222533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4773336251576672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3689994017283098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.8093334039052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.389833052953033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.356665770212768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.557665665944398</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.611999988555858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>73.433833201726259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.20733340581252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131.28000028928065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="499020416"/>
+        <c:axId val="499012800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="499020416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499012800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499012800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499020416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -996,6 +3800,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1499,7 +4463,2079 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="185" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9302750" cy="6080125"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1534,12 +6570,113 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297865" cy="6074019"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9308757" cy="6085703"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>144608</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>335108</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wyniki_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wyniki" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wyniki" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wyniki_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wyniki2_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="wyniki2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1807,8 +6944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:AA125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z48" sqref="Z48"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BI81" sqref="BI81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3233,4 +8370,1535 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:AA105"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="M6" t="str">
+        <f>CONCATENATE(M8,"M")</f>
+        <v>50M</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:AA6" si="0">CONCATENATE(N8,"M")</f>
+        <v>100M</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>150M</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>200M</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="0"/>
+        <v>250M</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>300M</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="0"/>
+        <v>350M</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="0"/>
+        <v>400M</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="0"/>
+        <v>450M</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v>500M</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v>550M</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="0"/>
+        <v>600M</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
+        <v>650M</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="0"/>
+        <v>700M</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>750M</v>
+      </c>
+    </row>
+    <row r="7" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="M7" t="str">
+        <f>CONCATENATE(M8,"L")</f>
+        <v>50L</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7:AA7" si="1">CONCATENATE(N8,"L")</f>
+        <v>100L</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>150L</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>200L</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>250L</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>300L</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>350L</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v>400L</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v>450L</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="1"/>
+        <v>500L</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v>550L</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="1"/>
+        <v>600L</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="1"/>
+        <v>650L</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="1"/>
+        <v>700L</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="1"/>
+        <v>750L</v>
+      </c>
+    </row>
+    <row r="8" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8">
+        <v>200</v>
+      </c>
+      <c r="Q8">
+        <v>250</v>
+      </c>
+      <c r="R8">
+        <v>300</v>
+      </c>
+      <c r="S8">
+        <v>350</v>
+      </c>
+      <c r="T8">
+        <v>400</v>
+      </c>
+      <c r="U8">
+        <v>450</v>
+      </c>
+      <c r="V8">
+        <v>500</v>
+      </c>
+      <c r="W8">
+        <v>550</v>
+      </c>
+      <c r="X8">
+        <v>600</v>
+      </c>
+      <c r="Y8">
+        <v>650</v>
+      </c>
+      <c r="Z8">
+        <v>700</v>
+      </c>
+      <c r="AA8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGEIF($D$16:$D$105,M6,$E$16:$E$105)</f>
+        <v>1.03340943654378E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:AA9" si="2">AVERAGEIF($D$16:$D$105,N6,$E$16:$E$105)</f>
+        <v>0.14683341979980399</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.71483333905537905</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>2.1919998327890968</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>5.361665884653724</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>11.023665269215869</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>20.1903337637583</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>34.345999797185236</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>54.838999986648531</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>83.433666308720845</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>123.20783360799101</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>175.78950468699068</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>236.48683285713136</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>319.83516788482638</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="2"/>
+        <v>418.98166529337533</v>
+      </c>
+    </row>
+    <row r="10" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <f>AVERAGEIF($D$16:$D$105,M7,$E$16:$E$105)</f>
+        <v>4.499673843383783E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:AA10" si="3">AVERAGEIF($D$16:$D$105,N7,$E$16:$E$105)</f>
+        <v>5.2166700363159131E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.23633138338724735</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>0.73766692479451468</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>1.7264994780222533</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>3.4773336251576672</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>6.3689994017283098</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>10.8093334039052</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="3"/>
+        <v>17.389833052953033</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>26.356665770212768</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>38.557665665944398</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="3"/>
+        <v>54.611999988555858</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>73.433833201726259</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>100.20733340581252</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>131.28000028928065</v>
+      </c>
+    </row>
+    <row r="14" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M15" t="str">
+        <f>CONCATENATE(M17,"M")</f>
+        <v>50M</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ref="N15:AA15" si="4">CONCATENATE(N17,"M")</f>
+        <v>100M</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>150M</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="4"/>
+        <v>200M</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="4"/>
+        <v>250M</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>300M</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>350M</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v>400M</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="4"/>
+        <v>450M</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="4"/>
+        <v>500M</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="4"/>
+        <v>550M</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="4"/>
+        <v>600M</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="4"/>
+        <v>650M</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="4"/>
+        <v>700M</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="4"/>
+        <v>750M</v>
+      </c>
+    </row>
+    <row r="16" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>1.0000467300414999E-2</v>
+      </c>
+      <c r="M16" t="str">
+        <f>CONCATENATE(M17,"L")</f>
+        <v>50L</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ref="N16" si="5">CONCATENATE(N17,"L")</f>
+        <v>100L</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" ref="O16" si="6">CONCATENATE(O17,"L")</f>
+        <v>150L</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" ref="P16" si="7">CONCATENATE(P17,"L")</f>
+        <v>200L</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ref="Q16" si="8">CONCATENATE(Q17,"L")</f>
+        <v>250L</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" ref="R16" si="9">CONCATENATE(R17,"L")</f>
+        <v>300L</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" ref="S16" si="10">CONCATENATE(S17,"L")</f>
+        <v>350L</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" ref="T16" si="11">CONCATENATE(T17,"L")</f>
+        <v>400L</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" ref="U16" si="12">CONCATENATE(U17,"L")</f>
+        <v>450L</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" ref="V16" si="13">CONCATENATE(V17,"L")</f>
+        <v>500L</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" ref="W16" si="14">CONCATENATE(W17,"L")</f>
+        <v>550L</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" ref="X16" si="15">CONCATENATE(X17,"L")</f>
+        <v>600L</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" ref="Y16" si="16">CONCATENATE(Y17,"L")</f>
+        <v>650L</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" ref="Z16" si="17">CONCATENATE(Z17,"L")</f>
+        <v>700L</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" ref="AA16" si="18">CONCATENATE(AA17,"L")</f>
+        <v>750L</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>4.0004253387451102E-3</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="O17">
+        <v>150</v>
+      </c>
+      <c r="P17">
+        <v>200</v>
+      </c>
+      <c r="Q17">
+        <v>250</v>
+      </c>
+      <c r="R17">
+        <v>300</v>
+      </c>
+      <c r="S17">
+        <v>350</v>
+      </c>
+      <c r="T17">
+        <v>400</v>
+      </c>
+      <c r="U17">
+        <v>450</v>
+      </c>
+      <c r="V17">
+        <v>500</v>
+      </c>
+      <c r="W17">
+        <v>550</v>
+      </c>
+      <c r="X17">
+        <v>600</v>
+      </c>
+      <c r="Y17">
+        <v>650</v>
+      </c>
+      <c r="Z17">
+        <v>700</v>
+      </c>
+      <c r="AA17">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>0.143000602722167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGEIF($N$31:$N$120,M15,$O$31:$O$120)</f>
+        <v>1.10018253326416E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:AA18" si="19">AVERAGEIF($N$31:$N$120,N15,$O$31:$O$120)</f>
+        <v>0.14400315284729001</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="19"/>
+        <v>0.70849943161010698</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="19"/>
+        <v>2.17949962615966</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="19"/>
+        <v>5.2519991397857604</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="19"/>
+        <v>10.7909972667694</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="19"/>
+        <v>20.1040005683898</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="19"/>
+        <v>34.490000963211003</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="19"/>
+        <v>55.442497730255099</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="19"/>
+        <v>83.388996839523301</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="19"/>
+        <v>121.20799732208199</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="19"/>
+        <v>170.67999863624499</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="19"/>
+        <v>234.05300045013399</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="19"/>
+        <v>316.92599725723198</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="19"/>
+        <v>415.63150095939602</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>5.0500392913818297E-2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGEIF($N$31:$N$120,M16,$O$31:$O$120)</f>
+        <v>8.9981555938720703E-3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:AA19" si="20">AVERAGEIF($N$31:$N$120,N16,$O$31:$O$120)</f>
+        <v>0.110998630523681</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="20"/>
+        <v>0.53149890899658203</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="20"/>
+        <v>1.6074981689453101</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="20"/>
+        <v>3.81849861145019</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="20"/>
+        <v>7.8249962329864502</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="20"/>
+        <v>14.427500247955299</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="20"/>
+        <v>27.4104981422424</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="20"/>
+        <v>40.568499088287297</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="20"/>
+        <v>59.5474982261657</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="20"/>
+        <v>87.482498884200993</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="20"/>
+        <v>122.65399956703099</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="20"/>
+        <v>167.22500038146899</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="20"/>
+        <v>227.98150014877299</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="20"/>
+        <v>296.66549992561301</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>0.71349978446960405</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>0.24049687385558999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2.18349933624267</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.75900030136108398</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>5.3319990634918204</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>1.70050168037414</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>11.0064945220947</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>3.50450086593627</v>
+      </c>
+    </row>
+    <row r="28" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <v>20.0430006980896</v>
+      </c>
+    </row>
+    <row r="29" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <v>6.3520002365112296</v>
+      </c>
+    </row>
+    <row r="30" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>34.485499858856201</v>
+      </c>
+    </row>
+    <row r="31" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>10.691999912261901</v>
+      </c>
+      <c r="N31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31">
+        <v>1.10018253326416E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32">
+        <v>54.363000392913797</v>
+      </c>
+      <c r="N32" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32">
+        <v>8.9981555938720703E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>17.756999015808098</v>
+      </c>
+      <c r="N33" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33">
+        <v>0.14400315284729001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34">
+        <v>84.079999923705998</v>
+      </c>
+      <c r="N34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34">
+        <v>0.110998630523681</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35">
+        <v>26.59099984169</v>
+      </c>
+      <c r="N35" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35">
+        <v>0.70849943161010698</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>124.59900021553</v>
+      </c>
+      <c r="N36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36">
+        <v>0.53149890899658203</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37">
+        <v>38.019500970840397</v>
+      </c>
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2.17949962615966</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>171.79849910735999</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1.6074981689453101</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>54.241000413894596</v>
+      </c>
+      <c r="N39" t="s">
+        <v>58</v>
+      </c>
+      <c r="O39">
+        <v>5.2519991397857604</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40">
+        <v>237.138498783111</v>
+      </c>
+      <c r="N40" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40">
+        <v>3.81849861145019</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41">
+        <v>73.403500556945801</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41">
+        <v>10.7909972667694</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>320.03600072860701</v>
+      </c>
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42">
+        <v>7.8249962329864502</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>99.75</v>
+      </c>
+      <c r="N43" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43">
+        <v>20.1040005683898</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44">
+        <v>418.84250020980801</v>
+      </c>
+      <c r="N44" t="s">
+        <v>61</v>
+      </c>
+      <c r="O44">
+        <v>14.427500247955299</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <v>131.21800017356799</v>
+      </c>
+      <c r="N45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>34.490000963211003</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46">
+        <v>1.0502099990844701E-2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>27.4104981422424</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>4.0006637573242101E-3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>62</v>
+      </c>
+      <c r="O47">
+        <v>55.442497730255099</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>0.14649987220764099</v>
+      </c>
+      <c r="N48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48">
+        <v>40.568499088287297</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>5.2500009536743102E-2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>64</v>
+      </c>
+      <c r="O49">
+        <v>83.388996839523301</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
+        <v>0.72699952125549305</v>
+      </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50">
+        <v>59.5474982261657</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>0.23350191116332999</v>
+      </c>
+      <c r="N51" t="s">
+        <v>66</v>
+      </c>
+      <c r="O51">
+        <v>121.20799732208199</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2.2195012569427401</v>
+      </c>
+      <c r="N52" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52">
+        <v>87.482498884200993</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.74449944496154696</v>
+      </c>
+      <c r="N53" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>170.67999863624499</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54">
+        <v>5.4094991683959899</v>
+      </c>
+      <c r="N54" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>122.65399956703099</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>1.7054984569549501</v>
+      </c>
+      <c r="N55" t="s">
+        <v>68</v>
+      </c>
+      <c r="O55">
+        <v>234.05300045013399</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56">
+        <v>11.1970002651214</v>
+      </c>
+      <c r="N56" t="s">
+        <v>69</v>
+      </c>
+      <c r="O56">
+        <v>167.22500038146899</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>3.4739997386932302</v>
+      </c>
+      <c r="N57" t="s">
+        <v>70</v>
+      </c>
+      <c r="O57">
+        <v>316.92599725723198</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58">
+        <v>20.5269997119903</v>
+      </c>
+      <c r="N58" t="s">
+        <v>71</v>
+      </c>
+      <c r="O58">
+        <v>227.98150014877299</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59">
+        <v>6.3014993667602504</v>
+      </c>
+      <c r="N59" t="s">
+        <v>72</v>
+      </c>
+      <c r="O59">
+        <v>415.63150095939602</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>34.229999303817699</v>
+      </c>
+      <c r="N60" t="s">
+        <v>73</v>
+      </c>
+      <c r="O60">
+        <v>296.66549992561301</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>10.772500753402699</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62">
+        <v>54.458500623703003</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <v>16.9869992733001</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <v>82.735999822616506</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <v>26.264999151229802</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66">
+        <v>123.026000261306</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67">
+        <v>40.132000207901001</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>185.193515539169</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>56.494499444961498</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>238.347498893737</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>73.878499031066895</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>324.81100130081097</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>101.69100117683401</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>418.52399826049799</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>130.087501764297</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76">
+        <v>1.0499715805053701E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77">
+        <v>5.4979324340820304E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78">
+        <v>0.15099978446960399</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79">
+        <v>5.3499698638916002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80">
+        <v>0.70400071144104004</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81">
+        <v>0.23499536514282199</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>2.1729989051818799</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.70950102806091297</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84">
+        <v>5.3434994220733598</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85">
+        <v>1.77349829673767</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>10.867501020431501</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87">
+        <v>3.4535002708435001</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88">
+        <v>20.001000881195001</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E89">
+        <v>6.4534986019134504</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>34.3225002288818</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>10.963499546051001</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92">
+        <v>55.695498943328801</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93">
+        <v>17.425500869750898</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94">
+        <v>83.484999179840003</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95">
+        <v>26.213998317718499</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96">
+        <v>121.998500347137</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97">
+        <v>37.521495819091797</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>170.376499414443</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>53.100500106811502</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E100">
+        <v>233.974500894546</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101">
+        <v>73.019500017166095</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102">
+        <v>314.65850162506098</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103">
+        <v>99.180999040603595</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104">
+        <v>419.57849740981999</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105">
+        <v>132.53449892997699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>